--- a/Data Scraping/Pump3.xlsx
+++ b/Data Scraping/Pump3.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13.8</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="P1" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -546,7 +549,7 @@
           <t>INDOOR</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>OUTDOOR TEMPERATURE (°CDB)</t>
         </is>
@@ -563,27 +566,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>30.0 32.0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>35.0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>40.0</t>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>30 32</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -628,35 +631,45 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TC SHC PI TC SHC PI</t>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>SHC PI TC SHC</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>TC</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>SHC</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>PI</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>TC</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>SHC</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>PI</t>
         </is>
@@ -668,7 +681,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14.0 20</t>
+          <t>14.0 20.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -678,62 +691,72 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>3.55 0.95 4.02 3.51</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>4.10 3.15 1.06 4.02 3.11 1.10</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1.23</t>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1.04</t>
         </is>
       </c>
     </row>
@@ -743,7 +766,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16.0 22</t>
+          <t>16.0 22.0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -753,12 +776,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -768,47 +791,57 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>4.30 3.11 1.07 4.22 3.07 1.10</t>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>3.50 0.96 4.22 3.46</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>4.10</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>3.89</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1.04</t>
         </is>
       </c>
     </row>
@@ -818,7 +851,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>18.0 25</t>
+          <t>18.0 25.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -828,12 +861,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -843,47 +876,57 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>3.74 0.96 4.42 3.71</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>0.99</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>4.50 3.28 1.07 4.42 3.24 1.11</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>4.30</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>4.09</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1.05</t>
         </is>
       </c>
     </row>
@@ -903,12 +946,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -918,47 +961,57 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>4.01 0.96 4.52 3.98</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>0.99</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>4.60 3.48 1.07 4.52 3.44 1.11</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>4.40</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>4.20</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1.05</t>
         </is>
       </c>
     </row>
@@ -968,7 +1021,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22.0 30</t>
+          <t>22.0 30.0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -978,12 +1031,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -993,47 +1046,57 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>3.90 0.97 4.83 3.87</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>4.91 3.37 1.08 4.83 3.34 1.12</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>4.70</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>4.50</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1.06</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1106,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>24.0 32</t>
+          <t>24.0 32.0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1053,12 +1116,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1068,47 +1131,57 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>5.11 3.29 1.09 5.03 3.26 1.12</t>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>3.83 0.97 5.03 3.80</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>4.91</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>4.70</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>1.06</t>
         </is>
       </c>
     </row>
@@ -1123,7 +1196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,6 +1250,9 @@
       <c r="P1" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1187,7 +1263,7 @@
           <t>INDOOR</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>OUTDOOR TEMPERATURE (°FDB)</t>
         </is>
@@ -1204,27 +1280,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>77.0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>86.0 89.6</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>104.0</t>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>86 90</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -1269,35 +1345,45 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>TC SHC PI TC SHC PI</t>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>SHC PI TC SHC</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>TC</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>SHC</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>PI</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>TC</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>SHC</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>PI</t>
         </is>
@@ -1319,62 +1405,72 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>14.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>12.10 0.95 13.70 11.97</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>11.46</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>14.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>11.11</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>13.98 10.76 1.06 13.70 10.62 1.10</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>13.28</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>10.42</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>12.58</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>10.08</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1.23</t>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1.04</t>
         </is>
       </c>
     </row>
@@ -1394,12 +1490,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.26</t>
+          <t>12.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1409,47 +1505,57 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10.93</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>14.67 10.60 1.07 14.39 10.48 1.10</t>
+          <t>14.67</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>11.93 0.96 14.39 11.81</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>13.98</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>10.28</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>11.63</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>13.28</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>9.97</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1.04</t>
         </is>
       </c>
     </row>
@@ -1469,12 +1575,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.80</t>
+          <t>13.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1484,47 +1590,57 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11.49</t>
+          <t>13.04</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>12.76 0.96 15.09 12.65</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>0.99</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>15.37 11.19 1.07 15.09 11.07 1.11</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>14.67</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>10.89</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>13.97</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>10.60</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1.05</t>
         </is>
       </c>
     </row>
@@ -1544,12 +1660,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1559,47 +1675,57 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12.15</t>
+          <t>13.96</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>13.69 0.96 15.43 13.58</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>0.99</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>15.71 11.86 1.07 15.43 11.75 1.11</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>15.01</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>11.58</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>13.42</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>14.31</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>11.29</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1.05</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1745,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>13.79</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1634,47 +1760,57 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11.75</t>
+          <t>13.55</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>13.31 0.97 16.47 13.22</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>16.75 11.49 1.08 16.47 11.39 1.12</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>16.05</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>11.24</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>13.08</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>15.35</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>10.98</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1.06</t>
         </is>
       </c>
     </row>
@@ -1694,12 +1830,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.69</t>
+          <t>13.49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1709,47 +1845,57 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>13.27</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>17.44 11.22 1.09 17.16 11.13 1.12</t>
+          <t>17.44</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>13.05 0.97 17.16 12.97</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>16.74</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>10.99</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>16.04</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>10.76</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>1.06</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1794,6 +1940,27 @@
       <c r="H1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1804,7 +1971,7 @@
           <t>INDOOR</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>OUTDOOR TEMPERATURE (°CWB)</t>
         </is>
@@ -1819,20 +1986,26 @@
           <t>EDB</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-10.0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-5.0 0 6.1</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>–15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>–10</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>–5 0</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1846,20 +2019,40 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TC PI</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TC PI TC PI TC PI</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
           <t>TC</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>TC PI TC PI TC</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>PI</t>
         </is>
@@ -1876,20 +2069,40 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.59 1.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.19 1.16 4.78 1.22 5.50 1.28</t>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3.53 0.94 4.75 1.23 5.46</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1.33</t>
         </is>
@@ -1906,22 +2119,42 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.37 1.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.97 1.20 4.56 1.25 5.28 1.32</t>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1.34</t>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3.37 0.96 4.56 1.25 5.28</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.36</t>
         </is>
       </c>
     </row>
@@ -1936,22 +2169,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.34 1.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.93 1.21 4.53 1.26 5.24 1.33</t>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1.32</t>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3.31 0.97 4.49 1.27 5.21</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.38</t>
         </is>
       </c>
     </row>
@@ -1966,22 +2219,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.26 1.16</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.86 1.22 4.46 1.27 4.97 1.31</t>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1.28</t>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3.25 0.98 4.42 1.28 5.13</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.39</t>
         </is>
       </c>
     </row>
@@ -1996,22 +2269,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.23 1.17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.82 1.22 4.42 1.28 4.76 1.28</t>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>1.26</t>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>3.22 0.98 4.38 1.28 5.10</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.39</t>
         </is>
       </c>
     </row>
@@ -2026,22 +2319,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3.15 1.18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.75 1.24 4.33 1.29 4.33 1.23</t>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1.20</t>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>3.16 0.99 4.31 1.30 5.02</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.41</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2089,6 +2402,24 @@
       <c r="I1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2102,14 +2433,20 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>OUTDOOR TEMPERATURE (°FWB)</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>OUTDOOR TEMPERATURE (°FWB)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2121,24 +2458,30 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
+      <c r="D3" t="n">
+        <v>5</v>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>23.0 32.0 43.0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>14</v>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>50.0</t>
-        </is>
-      </c>
+          <t>23 32</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>43</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>50</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2154,24 +2497,42 @@
           <t>TC</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>PI</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TC PI TC PI TC PI</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>TC PI TC PI TC</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>TC</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
         <is>
           <t>PI</t>
         </is>
@@ -2188,27 +2549,45 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12.25</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14.29 1.16 16.32 1.22 18.76 1.28</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>20.39</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
+        <is>
+          <t>12.04 0.94 16.20 1.23 18.64</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1.33</t>
         </is>
@@ -2225,29 +2604,47 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11.51</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13.54 1.20 15.57 1.25 18.02 1.32</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>11.51 0.96 15.57 1.25 18.00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.36</t>
         </is>
       </c>
     </row>
@@ -2262,29 +2659,47 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11.38</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13.42 1.21 15.45 1.26 17.89 1.33</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>18.45</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>11.30 0.97 15.33 1.27 17.77</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>19.39</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.38</t>
         </is>
       </c>
     </row>
@@ -2299,29 +2714,47 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11.13</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>13.17 1.22 15.20 1.27 16.97 1.31</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>16.97</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>11.09 0.98 15.08 1.28 17.52</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>19.15</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.39</t>
         </is>
       </c>
     </row>
@@ -2336,29 +2769,47 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11.01</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>13.04 1.22 15.08 1.28 16.23 1.28</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>16.23</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>10.98 0.98 14.95 1.28 17.39</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.39</t>
         </is>
       </c>
     </row>
@@ -2373,29 +2824,47 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10.76</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>12.79 1.24 14.76 1.29 14.76 1.23</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>14.76</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>10.77 0.99 14.70 1.30 17.14</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.41</t>
         </is>
       </c>
     </row>
